--- a/Assets/Resources/Document/Excel/InvenSaveData.xlsx
+++ b/Assets/Resources/Document/Excel/InvenSaveData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,14 @@
   </si>
   <si>
     <t>currentHandCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,16 +381,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -397,13 +405,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
